--- a/public/sample-files/products.xlsx
+++ b/public/sample-files/products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>purchase_unit</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +499,9 @@
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -546,6 +551,9 @@
       </c>
       <c r="P2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
